--- a/Sep19/pos_prof/Tables/individual_countries-M_%cit.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries-M_%cit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -752,15 +758,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -798,10 +804,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
@@ -815,34 +827,40 @@
       <c r="E2">
         <v>9223731.5</v>
       </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
+      <c r="F2">
+        <v>42494218261.79173</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
@@ -857,33 +875,39 @@
         <v>2879841.25</v>
       </c>
       <c r="F3">
+        <v>2998814894.49083</v>
+      </c>
+      <c r="G3">
+        <v>270011767.8991651</v>
+      </c>
+      <c r="H3">
         <v>-0.0002407503471298938</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.003856070580811031</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2.177110484270413e-05</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.002774048202428563</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-3.234760211862536e-05</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.0005181078173985466</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-0.0001617380105931266</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.002590539086992733</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
@@ -898,33 +922,39 @@
         <v>2919609</v>
       </c>
       <c r="F4">
+        <v>2218564329.546198</v>
+      </c>
+      <c r="G4">
+        <v>294014058.9589359</v>
+      </c>
+      <c r="H4">
         <v>0.00180441737227513</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.008234588011364131</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.001343652514461169</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.005663492628251195</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.0002424444072880167</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.001106412430046022</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.001212222036440083</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.005532062150230109</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
@@ -939,33 +969,39 @@
         <v>43629437.75</v>
       </c>
       <c r="F5">
+        <v>166710713995.8035</v>
+      </c>
+      <c r="G5">
+        <v>15465937803.46667</v>
+      </c>
+      <c r="H5">
         <v>0.009910808571948464</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.03784573407026402</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.005226523155250085</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.02399342974553242</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.001331632108452497</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.005085013426508963</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.006658160542262473</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.02542506713254482</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
@@ -980,33 +1016,39 @@
         <v>8683733.75</v>
       </c>
       <c r="F6">
+        <v>163227474729.9723</v>
+      </c>
+      <c r="G6">
+        <v>9639820060.340796</v>
+      </c>
+      <c r="H6">
         <v>0.02077542838272161</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.01909293424417914</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.0151523104209166</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.01402199738898715</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.002791419822151642</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.002565357215765754</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.01395709911075822</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.01282678607882877</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
@@ -1021,33 +1063,39 @@
         <v>24041166</v>
       </c>
       <c r="F7">
+        <v>361502269857.717</v>
+      </c>
+      <c r="G7">
+        <v>59545549400.06455</v>
+      </c>
+      <c r="H7">
         <v>0.03769037150874748</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.0441286943448931</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.0613914892690133</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.06571680609405053</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.0050641386639843</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.005929202028991744</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.02532069331992149</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.02964601014495873</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
@@ -1061,34 +1109,40 @@
       <c r="E8">
         <v>104555.5</v>
       </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.08550529520849598</v>
@@ -1103,33 +1157,39 @@
         <v>3531449</v>
       </c>
       <c r="F9">
+        <v>6376905261.574483</v>
+      </c>
+      <c r="G9">
+        <v>299987147.5604433</v>
+      </c>
+      <c r="H9">
         <v>-0.00142469980194349</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.001207608194900176</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-0.002010615758162818</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-0.0002422101722378769</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-0.0001914249465521529</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.0001622561706328353</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>-0.0009571247327607671</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.0008112808531641732</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.0166705414399613</v>
@@ -1144,33 +1204,39 @@
         <v>284579.25</v>
       </c>
       <c r="F10">
+        <v>1337070536.443148</v>
+      </c>
+      <c r="G10">
+        <v>130111830.9037901</v>
+      </c>
+      <c r="H10">
         <v>-0.9972940972861626</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-1.705433128864453</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-0.687539346334856</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-1.163272816945476</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-0.1339980317322692</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-0.2291447258543932</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-0.6699901586613477</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>-1.145723629271968</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.3807937740264143</v>
@@ -1185,33 +1251,39 @@
         <v>162056869</v>
       </c>
       <c r="F11">
+        <v>19299500079.81276</v>
+      </c>
+      <c r="G11">
+        <v>3852631858.235275</v>
+      </c>
+      <c r="H11">
         <v>-0.02147660199147677</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-0.01929418218576439</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-0.01565008661351353</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-0.01418391951609077</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-0.002885630630910535</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.002592397211425982</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-0.0144281531545527</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-0.01296198605712994</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.1765509802813119</v>
@@ -1226,33 +1298,39 @@
         <v>11296685.75</v>
       </c>
       <c r="F12">
+        <v>207904913535.2679</v>
+      </c>
+      <c r="G12">
+        <v>19310426587.22296</v>
+      </c>
+      <c r="H12">
         <v>0.07978307805462483</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.0243816722976466</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.06454017253480038</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.02732106461649808</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.01071978211237138</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.003275960528710935</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.05359891056185683</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.01637980264355455</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.08541399034785069</v>
@@ -1267,33 +1345,39 @@
         <v>7151435.5</v>
       </c>
       <c r="F13">
+        <v>15635710825.9256</v>
+      </c>
+      <c r="G13">
+        <v>1209008774.759262</v>
+      </c>
+      <c r="H13">
         <v>0.0007793735160584758</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.02303612644503553</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.004193453327459973</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.01914571812753225</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.0001047178735142262</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.003095170833528682</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.000523589367571121</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.01547585416764339</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.03195894343465661</v>
@@ -1308,10 +1392,10 @@
         <v>1406501.75</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>344245067.4295055</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>41603949.32570496</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1331,10 +1415,16 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.5435900323311412</v>
@@ -1349,33 +1439,39 @@
         <v>10806586.5</v>
       </c>
       <c r="F15">
+        <v>10765106899.85116</v>
+      </c>
+      <c r="G15">
+        <v>1857238890.070168</v>
+      </c>
+      <c r="H15">
         <v>0.006548109764336392</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.01227566967327276</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.006683239745940284</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.01053106034627574</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.0008798145124648839</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.001649378632531977</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.004399072562324419</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.00824689316265988</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>6.471261278245624</v>
@@ -1390,33 +1486,39 @@
         <v>206779096</v>
       </c>
       <c r="F16">
+        <v>614031604400.1611</v>
+      </c>
+      <c r="G16">
+        <v>50490649816.95195</v>
+      </c>
+      <c r="H16">
         <v>0.08077968414866167</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.1316208263421322</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.08228518641628856</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.1164406727642174</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.01085368770288546</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.01768478497247121</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.05426843851442731</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.08842392486235603</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0.3305610002155921</v>
@@ -1430,34 +1532,40 @@
       <c r="E17">
         <v>2229922.75</v>
       </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
+      <c r="F17">
+        <v>3625845354.29923</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.1848601141168272</v>
@@ -1472,33 +1580,39 @@
         <v>9493384</v>
       </c>
       <c r="F18">
+        <v>16491907898.09357</v>
+      </c>
+      <c r="G18">
+        <v>1436245672.195966</v>
+      </c>
+      <c r="H18">
         <v>0.0002084004236100515</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.002751022546207407</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>2.896955132087862e-05</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.001737123448922906</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>2.800101459730723e-05</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.0003696317941177126</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.0001400050729865356</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.001848158970588563</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.2732084640075076</v>
@@ -1513,33 +1627,39 @@
         <v>36085137</v>
       </c>
       <c r="F19">
+        <v>495997171341.8364</v>
+      </c>
+      <c r="G19">
+        <v>52563581921.39192</v>
+      </c>
+      <c r="H19">
         <v>0.0698782620473925</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.089340949681259</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.08289678040047771</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.09597196976665809</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.009388955174509141</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.01200399304774523</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.04694477587254571</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.06001996523872607</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.1152854342222651</v>
@@ -1554,33 +1674,39 @@
         <v>17835239.75</v>
       </c>
       <c r="F20">
+        <v>43397909696.74773</v>
+      </c>
+      <c r="G20">
+        <v>10627264858.73001</v>
+      </c>
+      <c r="H20">
         <v>-0.0370919082053554</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>-0.002163747453292163</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-0.02695875002012511</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>-0.003493732000160745</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>-0.004983728176308946</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>-0.0002907245723160703</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>-0.02491864088154472</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>-0.001453622861580351</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.2635720909729406</v>
@@ -1595,33 +1721,39 @@
         <v>1375137500</v>
       </c>
       <c r="F21">
+        <v>2669714541701.067</v>
+      </c>
+      <c r="G21">
+        <v>434215616892.8914</v>
+      </c>
+      <c r="H21">
         <v>0.001760123214873981</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.01104414928380657</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>0.0005162088625614564</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.006753291901422972</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.0002364929733778549</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.001483909581150159</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.001182464866889272</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.007419547905750788</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.6926113902235932</v>
@@ -1635,34 +1767,40 @@
       <c r="E22">
         <v>48434910.5</v>
       </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
+      <c r="F22">
+        <v>54317832169.73812</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.1696800597082566</v>
@@ -1677,33 +1815,39 @@
         <v>4832117.5</v>
       </c>
       <c r="F23">
+        <v>7813132536.326554</v>
+      </c>
+      <c r="G23">
+        <v>1653404469.940727</v>
+      </c>
+      <c r="H23">
         <v>0.004634013381344882</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.2566492425484917</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-0.006393985581367407</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.1629118629484103</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.0006226334576841005</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.03448380316363965</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.003113167288420438</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.1724190158181982</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0.05140512758335535</v>
@@ -1717,34 +1861,40 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0.01021498128951731</v>
@@ -1759,33 +1909,39 @@
         <v>1165742.5</v>
       </c>
       <c r="F25">
+        <v>4918777342.358389</v>
+      </c>
+      <c r="G25">
+        <v>1133445849.661561</v>
+      </c>
+      <c r="H25">
         <v>-0.1580352379426115</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>-0.1586197448292723</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-0.1595328074842139</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>-0.1599254838900988</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>-0.02123386760863827</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>-0.02131240288981526</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>-0.1061693380431915</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>-0.1065620144490764</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.1657072661536193</v>
@@ -1800,33 +1956,39 @@
         <v>10557265.25</v>
       </c>
       <c r="F26">
+        <v>68118979753.21311</v>
+      </c>
+      <c r="G26">
+        <v>7232899630.742956</v>
+      </c>
+      <c r="H26">
         <v>0.007222916940396342</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.04376081741283121</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>0.004235002350727367</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.02878145640203906</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.0009704826851101501</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.005879773495372487</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.004852413425550745</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.02939886747686242</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.3567911176518284</v>
@@ -1841,33 +2003,39 @@
         <v>81928195</v>
       </c>
       <c r="F27">
+        <v>1306253977481.738</v>
+      </c>
+      <c r="G27">
+        <v>70004185267.32045</v>
+      </c>
+      <c r="H27">
         <v>0.06350950984522286</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.06292753139592112</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0.04620397144817186</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.0458129936667469</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.008533239431275973</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.008455043874990983</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.04266619715637986</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.04227521937495489</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>0.5233560154281636</v>
@@ -1882,33 +2050,39 @@
         <v>5706142.75</v>
       </c>
       <c r="F28">
+        <v>139276466440.4725</v>
+      </c>
+      <c r="G28">
+        <v>9208793855.98259</v>
+      </c>
+      <c r="H28">
         <v>0.009892916860127219</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.01141891952431379</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.007645436089062327</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.008670616895685143</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.001329228149404814</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.001534264310729377</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.006646140747024072</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.007671321553646889</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0.1134284127311136</v>
@@ -1923,33 +2097,39 @@
         <v>10587506.75</v>
       </c>
       <c r="F29">
+        <v>9841476869.357698</v>
+      </c>
+      <c r="G29">
+        <v>1647374473.501711</v>
+      </c>
+      <c r="H29">
         <v>-0.03423419246308512</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.05872235514634999</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-0.0312001268161136</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.03124882605639698</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>-0.004599760913536044</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.007890029660966075</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>-0.02299880456768021</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.03945014830483037</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.5868422406058135</v>
@@ -1963,34 +2143,40 @@
       <c r="E30">
         <v>40227258.75</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
+      <c r="F30">
+        <v>22778595737.35755</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>4.507268197059778</v>
@@ -2005,33 +2191,39 @@
         <v>16264351.5</v>
       </c>
       <c r="F31">
+        <v>13997334282.94469</v>
+      </c>
+      <c r="G31">
+        <v>1015246901.280969</v>
+      </c>
+      <c r="H31">
         <v>0.06824188525847709</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.1036303973289171</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>0.06539380185191893</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.08916808757303439</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.009169088969060104</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>0.0139239461132832</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.04584544484530053</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.06961973056641597</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0.2102643889941552</v>
@@ -2046,33 +2238,39 @@
         <v>1315305.5</v>
       </c>
       <c r="F32">
+        <v>7697058981.156044</v>
+      </c>
+      <c r="G32">
+        <v>361416955.3250054</v>
+      </c>
+      <c r="H32">
         <v>-0.003918960853235884</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.03625725593880595</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-0.006813697295869842</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.02017700678646774</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-0.0005265578550985241</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>0.004871582961368992</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-0.002632789275492637</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.02435791480684494</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>1.198105386173035</v>
@@ -2087,33 +2285,39 @@
         <v>94708142.5</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>11105157233.4294</v>
+      </c>
+      <c r="H33">
         <v>0.009927850671085437</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.01907718399633866</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.01208152905875995</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.0182281244340989</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.001333921912179555</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.002563240987247344</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.006669609560897767</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.01281620493623672</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1.261330904214141</v>
@@ -2128,33 +2332,39 @@
         <v>46495451</v>
       </c>
       <c r="F34">
+        <v>415655347467.2473</v>
+      </c>
+      <c r="G34">
+        <v>28563666355.93319</v>
+      </c>
+      <c r="H34">
         <v>0.05706526536609986</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.06096549767744512</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>0.04794280572526781</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.05056301301638197</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.007667380424836623</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>0.008191421883059451</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.03833690212418312</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.04095710941529726</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>0.1270732915691374</v>
@@ -2169,33 +2379,39 @@
         <v>5486912.25</v>
       </c>
       <c r="F35">
+        <v>103462881215.5806</v>
+      </c>
+      <c r="G35">
+        <v>6534284466.24057</v>
+      </c>
+      <c r="H35">
         <v>0.0006872931719901922</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.001942626437379898</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.0008440185326190275</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.001687361470213876</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>9.234581105044753e-05</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>0.0002610143985694173</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.0004617290552522378</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.001305071992847083</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>0.182619173558908</v>
@@ -2210,33 +2426,39 @@
         <v>895554.25</v>
       </c>
       <c r="F36">
+        <v>1261625587.410089</v>
+      </c>
+      <c r="G36">
+        <v>206282623.6744426</v>
+      </c>
+      <c r="H36">
         <v>0.01106936566331238</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.05756151607710083</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.02439575199778294</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.05562955085110494</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>0.001487297694275853</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>0.007734057464940255</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.00743648847137926</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.03867028732470127</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>0.4691004962934454</v>
@@ -2251,33 +2473,39 @@
         <v>66721968.5</v>
       </c>
       <c r="F37">
+        <v>1140278490929.481</v>
+      </c>
+      <c r="G37">
+        <v>57843670218.60881</v>
+      </c>
+      <c r="H37">
         <v>0.05237879720041477</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.05837196497030833</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.04297944448706682</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.04700570257478805</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.007037699058340419</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>0.007842950675884667</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.03518849529170211</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.03921475337942334</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>0.1870761118100804</v>
@@ -2292,33 +2520,39 @@
         <v>65339964.75</v>
       </c>
       <c r="F38">
+        <v>881016914419.2806</v>
+      </c>
+      <c r="G38">
+        <v>74902123749.16447</v>
+      </c>
+      <c r="H38">
         <v>0.04597166062172157</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.05284435914849082</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.04570954231111955</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.05032667620262848</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.006176825928818279</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>0.007100252707120059</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.03088412964409131</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.03550126353560023</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>0.03179971778383467</v>
@@ -2333,33 +2567,39 @@
         <v>3720125</v>
       </c>
       <c r="F39">
+        <v>3702582423.970196</v>
+      </c>
+      <c r="G39">
+        <v>286471265.8863319</v>
+      </c>
+      <c r="H39">
         <v>-0.00737744331447467</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>-0.005268618671193851</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>-0.009860301029891523</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>-0.008443575751776036</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>-0.0009912450961517495</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>-0.0007079000405286525</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>-0.004956225480758756</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>-0.003539500202643267</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>0.4895231132881281</v>
@@ -2374,33 +2614,39 @@
         <v>1198498</v>
       </c>
       <c r="F40">
+        <v>603079805.3765075</v>
+      </c>
+      <c r="G40">
+        <v>308035640.2218897</v>
+      </c>
+      <c r="H40">
         <v>-0.2564186501588219</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-0.3273637937045721</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>-0.04600443855485446</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>-0.09366595395920202</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>-0.03445282040094974</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>-0.04398512348181924</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>-0.172264102004749</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>-0.2199256174090966</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.3168591219452894</v>
@@ -2414,34 +2660,40 @@
       <c r="E41">
         <v>10812422</v>
       </c>
-      <c r="F41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
+      <c r="F41">
+        <v>74878918912.15085</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N41" t="s">
+        <v>128</v>
+      </c>
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>2.534325418380812</v>
@@ -2456,33 +2708,39 @@
         <v>16417990</v>
       </c>
       <c r="F42">
+        <v>7414246639.670252</v>
+      </c>
+      <c r="G42">
+        <v>2436431034.642188</v>
+      </c>
+      <c r="H42">
         <v>0.03559890602815972</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.08585702133897838</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.03112946345220456</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>0.0648932676727902</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>0.004783126013255321</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>0.01153588685737245</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.02391563006627661</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.05767943428686226</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.2459453713445875</v>
@@ -2496,34 +2754,40 @@
       <c r="E43">
         <v>162472.25</v>
       </c>
-      <c r="F43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" t="s">
-        <v>125</v>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N43" t="s">
+        <v>127</v>
+      </c>
+      <c r="O43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0.1631121327213523</v>
@@ -2538,33 +2802,39 @@
         <v>7312275</v>
       </c>
       <c r="F44">
+        <v>43559381238.4065</v>
+      </c>
+      <c r="G44">
+        <v>17869524335.30607</v>
+      </c>
+      <c r="H44">
         <v>0.02163150530315718</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-0.01373470588939825</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>-0.007975992885939386</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>-0.03173529669875629</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.002906443687891902</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>-0.001845417074671494</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.01453221843945946</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>-0.009227085373357449</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>0.3527272633555201</v>
@@ -2579,33 +2849,39 @@
         <v>9036994.75</v>
       </c>
       <c r="F45">
+        <v>4368900443.186634</v>
+      </c>
+      <c r="G45">
+        <v>731894567.9101902</v>
+      </c>
+      <c r="H45">
         <v>0.07301408849274101</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>0.5921942418347351</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.05540126482327033</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>0.4041906482739327</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.00981028983664555</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>0.07956816652677801</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.04905144918322778</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.3978408326338899</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>0.2107511226836432</v>
@@ -2620,33 +2896,39 @@
         <v>4185510.5</v>
       </c>
       <c r="F46">
+        <v>18056223502.80032</v>
+      </c>
+      <c r="G46">
+        <v>876216512.2493358</v>
+      </c>
+      <c r="H46">
         <v>-0.003490626521785991</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.01188292957190067</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>-0.004268841604891091</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>0.006059236455960747</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>-0.0004690061684959221</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>0.001596609443674448</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>-0.002345030842479604</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.007983047218372235</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>0.2119778536923761</v>
@@ -2661,33 +2943,39 @@
         <v>9826161.5</v>
       </c>
       <c r="F47">
+        <v>48481519860.35867</v>
+      </c>
+      <c r="G47">
+        <v>2395343498.338683</v>
+      </c>
+      <c r="H47">
         <v>-0.2986773868736278</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>-0.2345188931036261</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>-0.3190808983506011</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>-0.2759787085979407</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>-0.04013077192867391</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-0.03151033397814183</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>-0.2006538596433695</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>-0.157551669890709</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0.294768796409911</v>
@@ -2702,33 +2990,39 @@
         <v>259600016</v>
       </c>
       <c r="F48">
+        <v>92118038247.22937</v>
+      </c>
+      <c r="G48">
+        <v>35769714392.45492</v>
+      </c>
+      <c r="H48">
         <v>-0.0121597922585629</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>-0.005398598622637</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>-0.005441377207528077</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>-0.0008991531943699242</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>-0.001633809157554035</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>-0.0007253643549224049</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>-0.008169045787770174</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>-0.003626821774612024</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.1363884680781818</v>
@@ -2743,33 +3037,39 @@
         <v>4732160</v>
       </c>
       <c r="F49">
+        <v>69641425049.92018</v>
+      </c>
+      <c r="G49">
+        <v>8500134030.786361</v>
+      </c>
+      <c r="H49">
         <v>-0.01625594297101377</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-0.1979497191211252</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-0.07435934034292989</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>-0.196422673758672</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>-0.002184174525844853</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-0.02659684120899328</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>-0.01092087262922427</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>-0.1329842060449664</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0.2898440760060395</v>
@@ -2784,33 +3084,39 @@
         <v>8463550</v>
       </c>
       <c r="F50">
+        <v>103289811942.907</v>
+      </c>
+      <c r="G50">
+        <v>10472158076.76882</v>
+      </c>
+      <c r="H50">
         <v>-0.02541576798944467</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>-0.01537012183345571</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>-0.02230174880571436</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>-0.01555300329501516</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-0.003414903281606801</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-0.002065154179466959</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>-0.017074516408034</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>-0.0103257708973348</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>0.3392858462128337</v>
@@ -2824,34 +3130,40 @@
       <c r="E51">
         <v>1316566188.75</v>
       </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
+      <c r="F51">
+        <v>399582448671.4861</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N51" t="s">
+        <v>127</v>
+      </c>
+      <c r="O51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>0.4538924418798343</v>
@@ -2866,33 +3178,39 @@
         <v>60674659</v>
       </c>
       <c r="F52">
+        <v>785093710222.7733</v>
+      </c>
+      <c r="G52">
+        <v>38868557922.75883</v>
+      </c>
+      <c r="H52">
         <v>0.03336181181430387</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.03486673411010467</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>0.02607896502177503</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>0.02708998386815176</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>0.004482546452750496</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>0.004684750222025844</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>0.02241273226375247</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>0.02342375111012919</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>0.1881317763475457</v>
@@ -2906,34 +3224,40 @@
       <c r="E53">
         <v>164145.5</v>
       </c>
-      <c r="F53" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N53" t="s">
+        <v>128</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.2116892168852285</v>
@@ -2948,33 +3272,39 @@
         <v>2876418.75</v>
       </c>
       <c r="F54">
+        <v>3610863626.732725</v>
+      </c>
+      <c r="G54">
+        <v>453137723.1855795</v>
+      </c>
+      <c r="H54">
         <v>-0.01454682754200186</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0.09963806319905115</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-0.01711423220898632</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>0.0595960915285211</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>-0.001954535040246706</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>0.01338752970725477</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>-0.009772675201233552</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.06693764853627385</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.0521518084924196</v>
@@ -2989,33 +3319,39 @@
         <v>9281690.75</v>
       </c>
       <c r="F55">
+        <v>5832398854.790161</v>
+      </c>
+      <c r="G55">
+        <v>994543936.615576</v>
+      </c>
+      <c r="H55">
         <v>-0.02414658431846129</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>-0.02295093818424351</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>-0.01792554310514189</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>-0.01712229846010963</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>-0.003244373731415639</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>-0.003083724802409183</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>-0.01622186865707819</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>-0.01541862401204592</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.2562328189538541</v>
@@ -3030,33 +3366,39 @@
         <v>127049327</v>
       </c>
       <c r="F56">
+        <v>1583945537084.176</v>
+      </c>
+      <c r="G56">
+        <v>222513048778.0717</v>
+      </c>
+      <c r="H56">
         <v>-0.01232453961121661</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>-0.01371388389105238</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>-0.01735630009404877</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>-0.01828967270400949</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>-0.00165594487564238</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>-0.001842619397634526</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>-0.008279724378211908</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>-0.009213096988172628</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>2.613787747665656</v>
@@ -3071,33 +3413,39 @@
         <v>47855484.5</v>
       </c>
       <c r="F57">
+        <v>10989048500.8325</v>
+      </c>
+      <c r="G57">
+        <v>2481386396.879453</v>
+      </c>
+      <c r="H57">
         <v>0.008794904874649637</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.01349781274423307</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>0.007689388089685257</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>0.01084883924685759</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>0.00118169750095035</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>0.001813587732384817</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.00590848750475175</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>0.009067938661924086</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0.2387805447697462</v>
@@ -3112,33 +3460,39 @@
         <v>15639042</v>
       </c>
       <c r="F58">
+        <v>3180057034.950613</v>
+      </c>
+      <c r="G58">
+        <v>620313116.6581955</v>
+      </c>
+      <c r="H58">
         <v>0.0004058935573211681</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.01410023170052281</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>0.004074175642783455</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>0.01327414164107125</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>5.453650825954949e-05</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>0.001894529707917108</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.0002726825412977414</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.009472648539585534</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>0.07143822361100609</v>
@@ -3153,33 +3507,39 @@
         <v>54548.25</v>
       </c>
       <c r="F59">
+        <v>167004107.5429425</v>
+      </c>
+      <c r="G59">
+        <v>22886482.44958925</v>
+      </c>
+      <c r="H59">
         <v>-0.7203626394917303</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-0.4967451849497233</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>-0.5003650996903998</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>-0.3501371034997674</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>-0.09678907765324604</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-0.06674347841511953</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>-0.4839453882662303</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>-0.3337173920755978</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>0.3068939985094956</v>
@@ -3194,33 +3554,39 @@
         <v>51118378.5</v>
       </c>
       <c r="F60">
+        <v>379564407726.6359</v>
+      </c>
+      <c r="G60">
+        <v>54063077465.50417</v>
+      </c>
+      <c r="H60">
         <v>0.001676665807559349</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.003762413225218808</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.000385470734396916</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>0.001786692547589082</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>0.0002252795025029442</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>0.0005055238651413757</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.001126397512514721</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.002527619325706882</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.3736880925013732</v>
@@ -3234,34 +3600,40 @@
       <c r="E61">
         <v>17665698</v>
       </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" t="s">
-        <v>125</v>
+      <c r="F61">
+        <v>22181808348.12268</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N61" t="s">
+        <v>127</v>
+      </c>
+      <c r="O61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>0.1428837294172986</v>
@@ -3275,34 +3647,40 @@
       <c r="E62">
         <v>5885945.75</v>
       </c>
-      <c r="F62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" t="s">
-        <v>125</v>
+      <c r="F62">
+        <v>7704382071.825423</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N62" t="s">
+        <v>127</v>
+      </c>
+      <c r="O62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.01908654605389848</v>
@@ -3317,33 +3695,39 @@
         <v>177621.5</v>
       </c>
       <c r="F63">
+        <v>342990005.1519836</v>
+      </c>
+      <c r="G63">
+        <v>34070453.3745492</v>
+      </c>
+      <c r="H63">
         <v>-0.399651657889975</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>-0.379551591957405</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>-0.3126486002393517</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>-0.2991452150293999</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>-0.05369783665773439</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>-0.05099715961574403</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>-0.2684891832886717</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>-0.25498579807872</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>0.1877638499118782</v>
@@ -3358,33 +3742,39 @@
         <v>21096000</v>
       </c>
       <c r="F64">
+        <v>10295289857.28315</v>
+      </c>
+      <c r="G64">
+        <v>1079873612.750378</v>
+      </c>
+      <c r="H64">
         <v>-0.0004858079177532321</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>0.01330069047652222</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>-0.003615968609463229</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>0.005645911383309477</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>-6.527392968235455e-05</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>0.001787102068872188</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>-0.0003263696484117762</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>0.008935510344360926</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>0.1157679105624186</v>
@@ -3399,33 +3789,39 @@
         <v>2883307.25</v>
       </c>
       <c r="F65">
+        <v>12668620841.55388</v>
+      </c>
+      <c r="G65">
+        <v>640003904.3871918</v>
+      </c>
+      <c r="H65">
         <v>-0.00927257126202778</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0.02509673136499284</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>-0.01276841935962078</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>0.01032115329785183</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>-0.00124587752157567</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>0.003372037009918857</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>-0.006229387607878349</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>0.01686018504959426</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0.03882925511546208</v>
@@ -3440,33 +3836,39 @@
         <v>1967896.5</v>
       </c>
       <c r="F66">
+        <v>8331725108.718972</v>
+      </c>
+      <c r="G66">
+        <v>436094132.0608147</v>
+      </c>
+      <c r="H66">
         <v>-0.006470138112599569</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-0.001972378520991138</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>-0.01064378891557193</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>-0.007622158013912587</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-0.0008693381164929444</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>-0.0002650119361610735</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>-0.004346690582464719</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>-0.001325059680805375</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>0.2114788631148144</v>
@@ -3481,33 +3883,39 @@
         <v>35034442.5</v>
       </c>
       <c r="F67">
+        <v>23155221009.51609</v>
+      </c>
+      <c r="G67">
+        <v>4710628793.764984</v>
+      </c>
+      <c r="H67">
         <v>0.003132484141100937</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>0.04101775048160298</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>0.001274575314513657</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>0.02672620054269053</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>0.0004208855847861639</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>0.005511210630421539</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>0.002104427923930811</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>0.02755605315210768</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>0.4709552485333245</v>
@@ -3521,34 +3929,40 @@
       <c r="E68">
         <v>38408.25</v>
       </c>
-      <c r="F68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" t="s">
-        <v>126</v>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M68" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N68" t="s">
+        <v>128</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0.0927937946339874</v>
@@ -3563,33 +3977,39 @@
         <v>2103721</v>
       </c>
       <c r="F69">
+        <v>2748208316.912612</v>
+      </c>
+      <c r="G69">
+        <v>198917935.3193891</v>
+      </c>
+      <c r="H69">
         <v>0.003478361547230749</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.03856403045606384</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>0.00481014408458275</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>0.02838097734523876</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>0.0004673582268765715</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.005181524879007774</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.002336791134382857</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.02590762439503886</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>0.2938881340975527</v>
@@ -3603,34 +4023,40 @@
       <c r="E70">
         <v>52645920.75</v>
       </c>
-      <c r="F70" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" t="s">
-        <v>126</v>
+      <c r="F70">
+        <v>4234214727.32078</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N70" t="s">
+        <v>128</v>
+      </c>
+      <c r="O70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>0.005174931977624367</v>
@@ -3645,33 +4071,39 @@
         <v>606114.25</v>
       </c>
       <c r="F71">
+        <v>12775118296.0182</v>
+      </c>
+      <c r="G71">
+        <v>627262048.2019763</v>
+      </c>
+      <c r="H71">
         <v>-0.1285393116108434</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>-0.06706144165558459</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>-0.05551396263705378</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>-0.01421263742358799</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>-0.01727074771919723</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>-0.009010482676504077</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>-0.08635373859598626</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>-0.04505241338252051</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0.1223696320960522</v>
@@ -3686,33 +4118,39 @@
         <v>450064.75</v>
       </c>
       <c r="F72">
+        <v>3687889025.586543</v>
+      </c>
+      <c r="G72">
+        <v>730216301.5493581</v>
+      </c>
+      <c r="H72">
         <v>-0.01596553602979118</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>-0.03485827263192307</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>-0.03082554974111175</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>-0.04351784144127744</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>-0.002145154984236089</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>-0.004683613324269226</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>-0.01072577492118048</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>-0.02341806662134617</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.05989864754605726</v>
@@ -3727,33 +4165,39 @@
         <v>1262906.25</v>
       </c>
       <c r="F73">
+        <v>2271466888.177237</v>
+      </c>
+      <c r="G73">
+        <v>315552337.3372826</v>
+      </c>
+      <c r="H73">
         <v>-1.038204717714227</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>-1.074427851833234</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>-1.087001797194311</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>-1.111336788689444</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>-0.1394948481971659</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>-0.1443618464961922</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>-0.6974742409858294</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>-0.7218092324809625</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0.4560688034870074</v>
@@ -3768,33 +4212,39 @@
         <v>126704062</v>
       </c>
       <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>37787776867.76843</v>
+      </c>
+      <c r="H74">
         <v>0.03680712485636112</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>0.1789488346856329</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>0.03058931533906666</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>0.1260812539558284</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>0.00494546422955624</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>0.02404385195290858</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.02472732114778114</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.1202192597645428</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0.1449132329743426</v>
@@ -3809,33 +4259,39 @@
         <v>30940675.25</v>
       </c>
       <c r="F75">
+        <v>40792453007.74967</v>
+      </c>
+      <c r="G75">
+        <v>17355071592.01313</v>
+      </c>
+      <c r="H75">
         <v>0.004425166514329815</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>0.03382107552342239</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>0.006985854904769277</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>0.02673426191388569</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>0.0005945724582360551</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>0.00454425386005934</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>0.002972862291180289</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.0227212693002967</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>1.644956220241079</v>
@@ -3847,36 +4303,42 @@
         <v>10945000000</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2452515</v>
       </c>
       <c r="F76">
+        <v>3142398453.602035</v>
+      </c>
+      <c r="G76">
+        <v>508419371.5573662</v>
+      </c>
+      <c r="H76">
         <v>0.00170368709622375</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>0.007919305790598024</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>0.001111094516328728</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>0.005286796916006454</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>0.0002289101261131225</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>0.001064050606048667</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>0.001144550630565612</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>0.005320253030243336</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>1.77626889548744</v>
@@ -3891,33 +4353,39 @@
         <v>183629549.25</v>
       </c>
       <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>4255580884.992722</v>
+      </c>
+      <c r="H77">
         <v>0.007049400301289453</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>-0.006858222057026839</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>0.1546479673738101</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>0.1453047153323044</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>0.0009471687116529808</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>-0.0009214816966481464</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>0.004735843558264887</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>-0.004607408483240723</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>0.3602404008541973</v>
@@ -3931,34 +4399,40 @@
       <c r="E78">
         <v>6115885.25</v>
       </c>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" t="s">
-        <v>126</v>
+      <c r="F78">
+        <v>3148813587.287746</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N78" t="s">
+        <v>128</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>0.0813244501352182</v>
@@ -3973,33 +4447,39 @@
         <v>16992024.75</v>
       </c>
       <c r="F79">
+        <v>301314513790.1466</v>
+      </c>
+      <c r="G79">
+        <v>25519214650.87755</v>
+      </c>
+      <c r="H79">
         <v>-0.1475655093785765</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>-0.2238764628124058</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>-0.1746200799812716</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>-0.2258863894258561</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>-0.01982713811513235</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>-0.03008040000404924</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>-0.09913569057566189</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>-0.1504020000202464</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>1.120509505427408</v>
@@ -4014,33 +4494,39 @@
         <v>5211053.25</v>
       </c>
       <c r="F80">
+        <v>143642415165.2614</v>
+      </c>
+      <c r="G80">
+        <v>12711932917.64178</v>
+      </c>
+      <c r="H80">
         <v>0.02171086464368705</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>0.01705695025001803</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>0.03598320319637043</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>0.03285666624854777</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.002917106535951969</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.002291799146387438</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.01458553267975985</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.01145899573193719</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>0.2769680603303864</v>
@@ -4055,33 +4541,39 @@
         <v>4648125</v>
       </c>
       <c r="F81">
+        <v>60860293470.54649</v>
+      </c>
+      <c r="G81">
+        <v>8974944428.672821</v>
+      </c>
+      <c r="H81">
         <v>0.003639867121824014</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>0.008900522553215202</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>2.236248386381903e-05</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>0.003556512918255809</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>0.0004890583744741361</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>0.001195888461352531</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>0.002445291872370669</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>0.005979442306762657</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>0.07234454195091813</v>
@@ -4095,34 +4587,40 @@
       <c r="E82">
         <v>4001485.25</v>
       </c>
-      <c r="F82" t="s">
-        <v>126</v>
-      </c>
-      <c r="G82" t="s">
-        <v>125</v>
+      <c r="F82">
+        <v>8611043762.443003</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M82" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N82" t="s">
+        <v>128</v>
+      </c>
+      <c r="O82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>1.41044544263576</v>
@@ -4137,33 +4635,39 @@
         <v>31572337.25</v>
       </c>
       <c r="F83">
+        <v>25389636418.45771</v>
+      </c>
+      <c r="G83">
+        <v>6646655023.312309</v>
+      </c>
+      <c r="H83">
         <v>0.02392904826904782</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.04361551322862701</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>0.05432600662714408</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>0.06755153139224743</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.003215145239507842</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.005860250192528514</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.01607572619753922</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.02930125096264256</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>0.1787880268188615</v>
@@ -4177,34 +4681,40 @@
       <c r="E84">
         <v>8002940.75</v>
       </c>
-      <c r="F84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G84" t="s">
-        <v>125</v>
+      <c r="F84">
+        <v>3145721283.938551</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J84" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K84" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N84" t="s">
+        <v>127</v>
+      </c>
+      <c r="O84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>0.2288659649874671</v>
@@ -4219,33 +4729,39 @@
         <v>102514230</v>
       </c>
       <c r="F85">
+        <v>43415746659.06635</v>
+      </c>
+      <c r="G85">
+        <v>11350149943.31396</v>
+      </c>
+      <c r="H85">
         <v>-0.008163640321546435</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.1310060453066603</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>-0.009282349680953504</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>0.08421295928419847</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>-0.001096879784843976</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>0.01760218200818642</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>-0.005484398924219888</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.08801091004093212</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>0.3769365909702638</v>
@@ -4259,34 +4775,40 @@
       <c r="E86">
         <v>191286550.25</v>
       </c>
-      <c r="F86" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" t="s">
-        <v>125</v>
+      <c r="F86">
+        <v>27858825095.19225</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N86" t="s">
+        <v>127</v>
+      </c>
+      <c r="O86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>0.1982935992218995</v>
@@ -4301,33 +4823,39 @@
         <v>37986018.75</v>
       </c>
       <c r="F87">
+        <v>159205910232.1582</v>
+      </c>
+      <c r="G87">
+        <v>9126103320.209379</v>
+      </c>
+      <c r="H87">
         <v>0.02257830945543698</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>0.09142128114892077</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>0.01919947284144947</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>0.06544873236594567</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>0.003033657809770965</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>0.0122835097146702</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>0.0151682890488548</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>0.06141754857335097</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>0.01553378878135734</v>
@@ -4341,34 +4869,40 @@
       <c r="E88">
         <v>3437937</v>
       </c>
-      <c r="F88" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" t="s">
-        <v>125</v>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N88" t="s">
+        <v>127</v>
+      </c>
+      <c r="O88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>0.3474442448407433</v>
@@ -4383,33 +4917,39 @@
         <v>10344577</v>
       </c>
       <c r="F89">
+        <v>70681053927.93391</v>
+      </c>
+      <c r="G89">
+        <v>6615632134.18939</v>
+      </c>
+      <c r="H89">
         <v>0.01719053015428396</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>0.03422370111468096</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>0.01330596301429092</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>0.02474898362908926</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>0.002309747156206534</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>0.004598351279166199</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>0.01154873578103268</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>0.022991756395831</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>0.1657047711363369</v>
@@ -4424,33 +4964,39 @@
         <v>6682077</v>
       </c>
       <c r="F90">
+        <v>3020223014.053269</v>
+      </c>
+      <c r="G90">
+        <v>606255246.4463352</v>
+      </c>
+      <c r="H90">
         <v>0.01081315064103889</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>0.006660159019433265</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>0.01111607421551927</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>0.008326061196239957</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>0.001452872233643616</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>0.0008948696297877545</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>0.007264361168218071</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>0.004474348148938767</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>0.4278407161903409</v>
@@ -4465,33 +5011,39 @@
         <v>2516243.25</v>
       </c>
       <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>6649586666.688611</v>
+      </c>
+      <c r="H91">
         <v>-0.01661250301717304</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>-0.01728297528771128</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>-0.01323080969355626</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>-0.01368123833254884</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>-0.002232082504554158</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>-0.002322168232352673</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>-0.0111604125227708</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>-0.01161084116176338</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>0.2631583188033569</v>
@@ -4506,33 +5058,39 @@
         <v>19753332.75</v>
       </c>
       <c r="F92">
+        <v>48321281767.00397</v>
+      </c>
+      <c r="G92">
+        <v>3772988828.179805</v>
+      </c>
+      <c r="H92">
         <v>0.01846586881091618</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>0.06592036379925392</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>0.01728456662092531</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>0.04916487626373628</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>0.002481103700124554</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.008857165628686745</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>0.01240551850062276</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>0.04428582814343374</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>3.037009127788569</v>
@@ -4547,33 +5105,39 @@
         <v>7076637.25</v>
       </c>
       <c r="F93">
+        <v>13839772672.29938</v>
+      </c>
+      <c r="G93">
+        <v>902243620.0800525</v>
+      </c>
+      <c r="H93">
         <v>0.01133969247312411</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>0.04627386082525148</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>0.01144221473991483</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>0.03491126871369772</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>0.001523619237276864</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>0.006217430032033444</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>0.007618096186384322</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>0.03108715016016721</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0.4012236469816403</v>
@@ -4588,33 +5152,39 @@
         <v>144188494</v>
       </c>
       <c r="F94">
+        <v>400814842174.5289</v>
+      </c>
+      <c r="G94">
+        <v>46100109643.07681</v>
+      </c>
+      <c r="H94">
         <v>0.005408369368339917</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.01760633562986634</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>0.005702639664897775</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>0.01389733105347103</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>0.0007266771679595127</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.002365615445674163</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.003633385839797558</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.01182807722837081</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>0.4191281043252832</v>
@@ -4629,33 +5199,39 @@
         <v>31886941.5</v>
       </c>
       <c r="F95">
+        <v>21829976674.02858</v>
+      </c>
+      <c r="G95">
+        <v>3500018031.81101</v>
+      </c>
+      <c r="H95">
         <v>0.01367099031757072</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.03222308503729313</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>0.01836035373259214</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>0.0308237994890555</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>0.001836856148422331</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.004329545299715003</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.009184280742111669</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.02164772649857503</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>1.215566435947169</v>
@@ -4670,33 +5246,39 @@
         <v>9871531.25</v>
       </c>
       <c r="F96">
+        <v>227165214131.7061</v>
+      </c>
+      <c r="G96">
+        <v>13598015763.87418</v>
+      </c>
+      <c r="H96">
         <v>0.007193313906923599</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>0.00479449353291526</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>-0.0006770220150193009</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>-0.002288568746675877</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>0.0009665051741337481</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>0.000644195827802432</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>0.004832525870668748</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>0.003220979139012168</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>0.06238487249287841</v>
@@ -4711,33 +5293,39 @@
         <v>5556065.5</v>
       </c>
       <c r="F97">
+        <v>44213495718.4691</v>
+      </c>
+      <c r="G97">
+        <v>14218511286.90894</v>
+      </c>
+      <c r="H97">
         <v>-0.02436331757321751</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>-0.1468986271035062</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>-0.09288678409844282</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>-0.1752069860300686</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>-0.003273494358547879</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>-0.01973753474487306</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>-0.01636747179273945</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>-0.09868767372436529</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>0.1540733019247695</v>
@@ -4752,33 +5340,39 @@
         <v>2064325.25</v>
       </c>
       <c r="F98">
+        <v>16215475323.27907</v>
+      </c>
+      <c r="G98">
+        <v>794473219.0465115</v>
+      </c>
+      <c r="H98">
         <v>0.01047156591176539</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.0217513425579032</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>0.009327586377460286</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>0.01690543063160304</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>0.001406976362488854</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>0.002922545213317407</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.007034881812444273</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.01461272606658703</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>0.1361389850972489</v>
@@ -4793,33 +5387,39 @@
         <v>5428285</v>
       </c>
       <c r="F99">
+        <v>29592783664.32924</v>
+      </c>
+      <c r="G99">
+        <v>2885401551.024737</v>
+      </c>
+      <c r="H99">
         <v>0.009415313540911839</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>0.07022672810605754</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>0.007740957117315012</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>0.04859455226421598</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>0.001265056602718832</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>0.00943577563209903</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>0.006325283013594132</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>0.0471788781604951</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>0.02200725380977351</v>
@@ -4834,33 +5434,39 @@
         <v>15196321.5</v>
       </c>
       <c r="F100">
+        <v>2342662060.465637</v>
+      </c>
+      <c r="G100">
+        <v>216441678.0427456</v>
+      </c>
+      <c r="H100">
         <v>-0.0774391364079119</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>-0.07065237031419958</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>-0.08002091158232966</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>-0.07546150778730343</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>-0.01040484635970873</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>-0.009492965600703484</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>-0.05202423179854361</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>-0.0474648280035174</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>0.2294454729434642</v>
@@ -4875,33 +5481,39 @@
         <v>6329060.5</v>
       </c>
       <c r="F101">
+        <v>4767420112.154323</v>
+      </c>
+      <c r="G101">
+        <v>999200870.7878593</v>
+      </c>
+      <c r="H101">
         <v>-0.008147175777991048</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>0.2201101435311567</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>-0.01216331579432572</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>0.1411817786925497</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>-0.001094667582409597</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>0.02957435131496549</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>-0.005473337912048059</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>0.1478717565748274</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>0.005817303773967213</v>
@@ -4915,34 +5527,40 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>127</v>
+      </c>
+      <c r="N102" t="s">
+        <v>127</v>
+      </c>
+      <c r="O102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>0.1702710851104377</v>
@@ -4957,33 +5575,39 @@
         <v>68743849.75</v>
       </c>
       <c r="F103">
+        <v>71255532011.76402</v>
+      </c>
+      <c r="G103">
+        <v>16467162037.08834</v>
+      </c>
+      <c r="H103">
         <v>-0.007810005554718288</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>0.01046447321718641</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>-0.008144515241288822</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>0.004132425898901906</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>-0.001049364851349417</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>0.001406023376688726</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>-0.005246824256747074</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.007030116883443654</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>0.2338423056782688</v>
@@ -4998,33 +5622,39 @@
         <v>11338236</v>
       </c>
       <c r="F104">
+        <v>12460186638.38316</v>
+      </c>
+      <c r="G104">
+        <v>679178508.4349424</v>
+      </c>
+      <c r="H104">
         <v>0.008454070996340875</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>0.0669276062223295</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>0.004719562809654347</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>0.04400255189999156</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>0.00113590251533344</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>0.008992500333400882</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>0.005679512576667195</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>0.04496250166700441</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>0.5210711135742035</v>
@@ -5039,33 +5669,39 @@
         <v>78889886.5</v>
       </c>
       <c r="F105">
+        <v>214797500930.788</v>
+      </c>
+      <c r="G105">
+        <v>14703822077.67806</v>
+      </c>
+      <c r="H105">
         <v>0.01204602985020327</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>0.01908457588973128</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>0.009108814650539159</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>0.01383736622885602</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>0.00161852385821576</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>0.002564234173879133</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>0.008092619291078797</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>0.01282117086939566</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>0.1802527304245044</v>
@@ -5079,34 +5715,40 @@
       <c r="E106">
         <v>23577271</v>
       </c>
-      <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N106" t="s">
+        <v>127</v>
+      </c>
+      <c r="O106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>0.2967113110764871</v>
@@ -5121,33 +5763,39 @@
         <v>45065445</v>
       </c>
       <c r="F107">
+        <v>29874275095.81216</v>
+      </c>
+      <c r="G107">
+        <v>2294800315.93204</v>
+      </c>
+      <c r="H107">
         <v>0.006964735916924837</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>0.04526268995445259</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>0.003478651852977038</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>0.02920752397989746</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>0.0009357930694090757</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>0.006081567494793162</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>0.004678965347045378</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>0.0304078374739658</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>2.296491669346442</v>
@@ -5161,34 +5809,40 @@
       <c r="E108">
         <v>40832282.75</v>
       </c>
-      <c r="F108" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
+      <c r="F108">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N108" t="s">
+        <v>128</v>
+      </c>
+      <c r="O108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109">
         <v>0.2034671187804626</v>
@@ -5203,33 +5857,39 @@
         <v>322196869.25</v>
       </c>
       <c r="F109">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G109">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H109">
         <v>0.05713297586531789</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>0.01533217458579775</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>0.07431748429398018</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>0.04623537134690935</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>0.00767647811592653</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.002060055526512313</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.03838239057963225</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.01030027763256142</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>0.03031723305851668</v>
@@ -5244,33 +5904,39 @@
         <v>3437963.5</v>
       </c>
       <c r="F110">
+        <v>17942881571.56679</v>
+      </c>
+      <c r="G110">
+        <v>1424464477.417897</v>
+      </c>
+      <c r="H110">
         <v>-0.1024558210440719</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>-0.1044320348302436</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>-0.1127103040306716</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>-0.1140379402733295</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>-0.0137661281629745</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>-0.01403165541150607</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>-0.06883064081487252</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>-0.07015827705753043</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111">
         <v>0.176418937746618</v>
@@ -5285,33 +5951,39 @@
         <v>94056588.5</v>
       </c>
       <c r="F111">
+        <v>37720488719.37246</v>
+      </c>
+      <c r="G111">
+        <v>7680824462.047056</v>
+      </c>
+      <c r="H111">
         <v>0.0006666855068151635</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>0.02861057683324377</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>-0.0004406439076176496</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>0.01833228599776937</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>8.957693216149612e-05</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>0.003844162913238902</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>0.0004478846608074771</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.0192208145661945</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112">
         <v>0.3322926075144546</v>
@@ -5326,33 +5998,39 @@
         <v>55640856.25</v>
       </c>
       <c r="F112">
+        <v>86191971741.78984</v>
+      </c>
+      <c r="G112">
+        <v>15808184832.85762</v>
+      </c>
+      <c r="H112">
         <v>0.02523679315436351</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>0.0494991097153091</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>0.01924777694560496</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>0.03554739544970951</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>0.003390855936199118</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>0.006650779637020028</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.01695427968099558</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>0.03325389818510013</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113">
         <v>0.110305415721579</v>
@@ -5367,27 +6045,33 @@
         <v>15967348</v>
       </c>
       <c r="F113">
+        <v>2189217368.947853</v>
+      </c>
+      <c r="G113">
+        <v>284694083.3487357</v>
+      </c>
+      <c r="H113">
         <v>-0.01601269340372389</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>0.03454445539727858</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>-0.01374975929886486</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>0.02021493801441883</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>-0.002151491124503882</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>0.004641448338152853</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>-0.01075745562251944</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.02320724169076425</v>
       </c>
     </row>
